--- a/biology/Botanique/Werner_Rauh/Werner_Rauh.xlsx
+++ b/biology/Botanique/Werner_Rauh/Werner_Rauh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Rauh, né le 16 mai 1913 à Niemegk, mort le 7 avril 2000 à Heidelberg est un botaniste allemand. Il se spécialisa notamment dans l'étude des succulentes et des cactées. Il a décrit ou découvert 1 200 taxons.
 </t>
@@ -511,12 +523,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe son Abitur en 1932 à Niemegk, puis étudie l'histoire naturelle et la botanique à la faculté de Biologie l'université de Leipzig, à l'université d'Innsbruck et à l'université de Halle. Il obtient son titre de docteur de troisième cycle de l'université de Halle en 1937. Après avoir été assistant à l'Institut botanique de l'université de Heidelberg, il est enrôlé dans la Reichsmarine en 1939, en tant que météorologiste. De retour à Heidelberg après la guerre, il est nommé professeur extraordinaire de l'université dix ans plus tard, en 1955. Il est nommé professeur ordinaire en 1960 et directeur du nouvel Institut de systématique et de géobotanique, tout en étant directeur du jardin botanique de Heidelberg, jusqu'en 1982. Il y prend comme collaborateur son ancien assistant et spécialiste des orchidées, Karlheinz Senghas.
 Il refonde totalement le jardin botanique éprouvé par la guerre et le place parmi les plus importants pour ses collections de succulentes. Il devient professeur émérite en 1981.
 Le professeur Rauh était membre de l'International Organization for Succulent Plant Study, dont il devient vice-président en 1976.
-Werner Rauh a consacré sa thèse de doctorat aux plantes en coussin, avec pour objectif principal de documenter la croissance de ces plantes dès leur premier stade de développement, afin de mieux comprendre comment le coussin est organisé et comment il se construit. Sa publication de référence (Rauh 1939[1]) comprend des dessins exceptionnels et des schémas synthétiques. Cette analyse minutieuse de nombreuses espèces de plantes a permis à Werner Rauh de raffiner la typologie établie en 1914 par Hauri et Schröter. Il a répertorié environ 350 espèces de plantes en coussin, étoffant le catalogue de Hauri et Schröter de nombreuses nouvelles espèces[2].
+Werner Rauh a consacré sa thèse de doctorat aux plantes en coussin, avec pour objectif principal de documenter la croissance de ces plantes dès leur premier stade de développement, afin de mieux comprendre comment le coussin est organisé et comment il se construit. Sa publication de référence (Rauh 1939) comprend des dessins exceptionnels et des schémas synthétiques. Cette analyse minutieuse de nombreuses espèces de plantes a permis à Werner Rauh de raffiner la typologie établie en 1914 par Hauri et Schröter. Il a répertorié environ 350 espèces de plantes en coussin, étoffant le catalogue de Hauri et Schröter de nombreuses nouvelles espèces.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Expéditions botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Werner Rauh dirigea de nombreuses expéditions botaniques et des voyages d'études, ou bien y prit part :
 1950 : Maroc ; 3 mois
@@ -603,7 +619,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Morphologie der Nutzpflanzen. 2. Auflage. Quelle &amp; Meyer–Verlag, Heidelberg 1950.
 (de) Schöne Kakteen und andere Sukkulenten (= Winters naturwissenschaftliche Taschenbücher. Bd. 31, ZDB 521590-0. Winter, Heidelberg 1967 (2., völlig überarbeitete Auflage. Bornträger, Berlin u. a. 1978,  (ISBN 3-443-25331-8); auch als: Die 100 schönsten Kakteen (= Humboldt-Taschenbücher 370 Praktischer Ratgeber). Gekürzte Taschenbuchausgabe. Humboldt-Taschenbuchverlag, München 1980,  (ISBN 3-581-66370-8)).
@@ -639,22 +657,24 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parmi les nombreux taxons nommés en son honneur, l'on peut distinguer:
 Genres
-(Amaryllidaceae) Rauhia Traub[3]
-(Bromeliaceae) Werauhia J.R.Grant[4]
-(Cactaceae) Rauhocereus Backeb.[5]
-(Orchidaceae) Rauhiella Pabst &amp; Braga[6]
+(Amaryllidaceae) Rauhia Traub
+(Bromeliaceae) Werauhia J.R.Grant
+(Cactaceae) Rauhocereus Backeb.
+(Orchidaceae) Rauhiella Pabst &amp; Braga
 Espèces
-(Acanthaceae) Dicliptera rauhii Wassh.[7]
-(Aizoaceae) Conophytum rauhii Tischer[8]
-(Aloaceae) Guillauminia rauhii (Reynolds) P.V.Heath[9]
-(Apiaceae) Eryngium rauhianum Mathias &amp; Constance[10]
-(Apocynaceae) Pachypodium × rauhii Halda[11]
-(Asclepiadaceae) Cynanchum rauhianum Desc.[12]
-(Bromeliaceae) Guzmania rauhiana H.Luther[13]
+(Acanthaceae) Dicliptera rauhii Wassh.
+(Aizoaceae) Conophytum rauhii Tischer
+(Aloaceae) Guillauminia rauhii (Reynolds) P.V.Heath
+(Apiaceae) Eryngium rauhianum Mathias &amp; Constance
+(Apocynaceae) Pachypodium × rauhii Halda
+(Asclepiadaceae) Cynanchum rauhianum Desc.
+(Bromeliaceae) Guzmania rauhiana H.Luther
 (Cactaceae) Armatocereus rauhii Backeb.
 (Cactaceae) Haageocereus rauhii (|Backeb.) P.V.Heath
 (Cactaceae) Opuntia rauhii (Backeb.) G.D.Rowley
